--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailasnadh/WORK/Franklin/eds-ipg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E116DB6A-E4BF-5C45-A029-13A03582A19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4ABF6-BF12-D14E-8DF5-0A9F34D6C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{DEAD6946-25A3-854D-AEE8-FB1340204909}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>/home</t>
   </si>
   <si>
-    <t>/</t>
+    <t>https://main--eds-ipg--kailasnadh790.hlx.live/</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
